--- a/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
+++ b/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
@@ -8,15 +8,16 @@
     <sheet name="AC12" sheetId="1" r:id="rId1"/>
     <sheet name="GR55" sheetId="2" r:id="rId3"/>
     <sheet name="Specialty marks" sheetId="3" r:id="rId4"/>
+    <sheet name="Examiner marks" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t>DAL.ORM.Models.SessionInfo.Session</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>Winter examination and credit session</t>
   </si>
   <si>
     <t>Group: AC12</t>
@@ -194,6 +195,42 @@
   </si>
   <si>
     <t>Information systems and technologies (in the gaming industry)</t>
+  </si>
+  <si>
+    <t>Average mark for each examiner</t>
+  </si>
+  <si>
+    <t>Konstantinovich</t>
+  </si>
+  <si>
+    <t>Konstantin</t>
+  </si>
+  <si>
+    <t>Konstantinov</t>
+  </si>
+  <si>
+    <t>Maksimovich</t>
+  </si>
+  <si>
+    <t>Maksimov</t>
+  </si>
+  <si>
+    <t>Alexandrovich</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Alexandrov</t>
+  </si>
+  <si>
+    <t>Danilovich</t>
+  </si>
+  <si>
+    <t>Daniil</t>
+  </si>
+  <si>
+    <t>Danilov</t>
   </si>
 </sst>
 </file>
@@ -1559,4 +1596,107 @@
   </mergeCells>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <sheetPr>
+    <tabColor rgb="FF000000"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" defaultColWidth="20"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
+++ b/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
@@ -7,8 +7,8 @@
   <sheets>
     <sheet name="AC12" sheetId="1" r:id="rId1"/>
     <sheet name="GR55" sheetId="2" r:id="rId3"/>
-    <sheet name="Specialty marks" sheetId="3" r:id="rId4"/>
-    <sheet name="Examiner marks" sheetId="4" r:id="rId5"/>
+    <sheet name="Specialty assessments" sheetId="3" r:id="rId4"/>
+    <sheet name="Examiner assessments" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -182,7 +182,7 @@
     <t>Ileevich</t>
   </si>
   <si>
-    <t>Average mark for each specialty</t>
+    <t>Average assessment for each specialty</t>
   </si>
   <si>
     <t>Specialty</t>
@@ -197,7 +197,7 @@
     <t>Information systems and technologies (in the gaming industry)</t>
   </si>
   <si>
-    <t>Average mark for each examiner</t>
+    <t>Average assessment for each examiner</t>
   </si>
   <si>
     <t>Konstantinovich</t>

--- a/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
+++ b/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Winter examination and credit session</t>
   </si>
@@ -198,21 +198,6 @@
   </si>
   <si>
     <t>Average assessment for each examiner</t>
-  </si>
-  <si>
-    <t>Konstantinovich</t>
-  </si>
-  <si>
-    <t>Konstantin</t>
-  </si>
-  <si>
-    <t>Konstantinov</t>
-  </si>
-  <si>
-    <t>Maksimovich</t>
-  </si>
-  <si>
-    <t>Maksimov</t>
   </si>
   <si>
     <t>Alexandrovich</t>
@@ -1603,7 +1588,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,7 +1633,7 @@
         <v>63</v>
       </c>
       <c r="D3" s="3">
-        <v>9</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="4">
@@ -1656,41 +1641,13 @@
         <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="3">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5.5</v>
+        <v>6.88</v>
       </c>
     </row>
   </sheetData>

--- a/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
+++ b/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
-  <si>
-    <t>Winter examination and credit session</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>Summer examination and credit session</t>
   </si>
   <si>
     <t>Group: AC12</t>
@@ -53,51 +53,51 @@
     <t>Vasilyevich</t>
   </si>
   <si>
-    <t>Algorithms and data structures</t>
+    <t>Linear algebra and geometry</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>08.06.2020</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Discrete mathematics</t>
+  </si>
+  <si>
+    <t>12.06.2020</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>15.06.2020</t>
+  </si>
+  <si>
+    <t>Mathematical analysis</t>
   </si>
   <si>
     <t>Credit</t>
   </si>
   <si>
-    <t>12.12.2019</t>
+    <t>25.06.2020</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>Probability theory and mathematical statistics</t>
-  </si>
-  <si>
-    <t>15.12.2019</t>
-  </si>
-  <si>
-    <t>Linear algebra and geometry</t>
-  </si>
-  <si>
-    <t>Exam</t>
-  </si>
-  <si>
-    <t>17.12.2019</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Discrete mathematics</t>
-  </si>
-  <si>
-    <t>19.12.2019</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Kolev</t>
   </si>
   <si>
@@ -122,6 +122,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Maximov</t>
   </si>
   <si>
@@ -143,16 +146,13 @@
     <t>Petrovich</t>
   </si>
   <si>
-    <t>21.12.2019</t>
-  </si>
-  <si>
-    <t>25.12.2019</t>
-  </si>
-  <si>
-    <t>27.12.2019</t>
-  </si>
-  <si>
-    <t>29.12.2019</t>
+    <t>10.06.2020</t>
+  </si>
+  <si>
+    <t>14.06.2020</t>
+  </si>
+  <si>
+    <t>21.06.2020</t>
   </si>
   <si>
     <t>Malaeva</t>
@@ -216,6 +216,21 @@
   </si>
   <si>
     <t>Danilov</t>
+  </si>
+  <si>
+    <t>Konstantinovich</t>
+  </si>
+  <si>
+    <t>Konstantin</t>
+  </si>
+  <si>
+    <t>Konstantinov</t>
+  </si>
+  <si>
+    <t>Maksimovich</t>
+  </si>
+  <si>
+    <t>Maksimov</t>
   </si>
 </sst>
 </file>
@@ -292,7 +307,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="41.6969168526786" customWidth="1"/>
+    <col min="4" max="4" width="26.5882895333426" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -377,16 +392,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -400,16 +415,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -423,16 +438,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -446,16 +461,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -472,10 +487,10 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>26</v>
@@ -501,7 +516,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -515,16 +530,16 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -538,16 +553,16 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -561,16 +576,16 @@
         <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -584,16 +599,16 @@
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -610,13 +625,13 @@
         <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -653,16 +668,16 @@
         <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -676,16 +691,16 @@
         <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -699,16 +714,16 @@
         <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -722,16 +737,16 @@
         <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -748,24 +763,24 @@
         <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
@@ -777,50 +792,50 @@
         <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>30</v>
@@ -828,22 +843,22 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>30</v>
@@ -851,48 +866,48 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +933,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="41.6969168526786" customWidth="1"/>
+    <col min="4" max="4" width="26.5882895333426" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -938,7 +953,7 @@
     <row r="2" ht="20" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -971,13 +986,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -986,24 +1001,24 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -1012,24 +1027,24 @@
         <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>44</v>
@@ -1040,71 +1055,71 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1124,10 +1139,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1141,7 +1156,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
@@ -1150,7 +1165,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1164,16 +1179,16 @@
         <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1187,16 +1202,16 @@
         <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1210,16 +1225,16 @@
         <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1236,13 +1251,13 @@
         <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -1262,10 +1277,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1279,7 +1294,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
@@ -1288,7 +1303,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1302,16 +1317,16 @@
         <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1325,16 +1340,16 @@
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1348,16 +1363,16 @@
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1374,13 +1389,13 @@
         <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1400,10 +1415,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -1417,7 +1432,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
@@ -1426,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1440,16 +1455,16 @@
         <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1463,16 +1478,16 @@
         <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1486,16 +1501,16 @@
         <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1512,13 +1527,13 @@
         <v>23</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1579,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="3">
-        <v>7</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="4">
@@ -1572,7 +1587,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="3">
-        <v>6.38</v>
+        <v>7.55</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1603,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1650,6 +1665,34 @@
         <v>6.88</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.75</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:D1"/>

--- a/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
+++ b/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>Summer examination and credit session</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>Winter examination and credit session</t>
   </si>
   <si>
     <t>Group: AC12</t>
@@ -53,87 +53,84 @@
     <t>Vasilyevich</t>
   </si>
   <si>
+    <t>Algorithms and data structures</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>12.12.2019</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Probability theory and mathematical statistics</t>
+  </si>
+  <si>
+    <t>15.12.2019</t>
+  </si>
+  <si>
+    <t>Kolev</t>
+  </si>
+  <si>
+    <t>Kolya</t>
+  </si>
+  <si>
+    <t>Nikolaevich</t>
+  </si>
+  <si>
+    <t>Krishina</t>
+  </si>
+  <si>
+    <t>Nastya</t>
+  </si>
+  <si>
+    <t>Ivanovna</t>
+  </si>
+  <si>
+    <t>Maximov</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>Maximovich</t>
+  </si>
+  <si>
     <t>Linear algebra and geometry</t>
   </si>
   <si>
     <t>Exam</t>
   </si>
   <si>
-    <t>08.06.2020</t>
+    <t>17.12.2019</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Discrete mathematics</t>
+  </si>
+  <si>
+    <t>19.12.2019</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Discrete mathematics</t>
-  </si>
-  <si>
-    <t>12.06.2020</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Economy</t>
-  </si>
-  <si>
-    <t>15.06.2020</t>
-  </si>
-  <si>
-    <t>Mathematical analysis</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>25.06.2020</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Kolev</t>
-  </si>
-  <si>
-    <t>Kolya</t>
-  </si>
-  <si>
-    <t>Nikolaevich</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>Krishina</t>
-  </si>
-  <si>
-    <t>Nastya</t>
-  </si>
-  <si>
-    <t>Ivanovna</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Maximov</t>
-  </si>
-  <si>
-    <t>Maxim</t>
-  </si>
-  <si>
-    <t>Maximovich</t>
-  </si>
-  <si>
     <t>Group: GR55</t>
   </si>
   <si>
@@ -146,13 +143,10 @@
     <t>Petrovich</t>
   </si>
   <si>
-    <t>10.06.2020</t>
-  </si>
-  <si>
-    <t>14.06.2020</t>
-  </si>
-  <si>
-    <t>21.06.2020</t>
+    <t>21.12.2019</t>
+  </si>
+  <si>
+    <t>25.12.2019</t>
   </si>
   <si>
     <t>Malaeva</t>
@@ -182,6 +176,12 @@
     <t>Ileevich</t>
   </si>
   <si>
+    <t>27.12.2019</t>
+  </si>
+  <si>
+    <t>29.12.2019</t>
+  </si>
+  <si>
     <t>Average assessment for each specialty</t>
   </si>
   <si>
@@ -216,21 +216,6 @@
   </si>
   <si>
     <t>Danilov</t>
-  </si>
-  <si>
-    <t>Konstantinovich</t>
-  </si>
-  <si>
-    <t>Konstantin</t>
-  </si>
-  <si>
-    <t>Konstantinov</t>
-  </si>
-  <si>
-    <t>Maksimovich</t>
-  </si>
-  <si>
-    <t>Maksimov</t>
   </si>
 </sst>
 </file>
@@ -307,7 +292,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="26.5882895333426" customWidth="1"/>
+    <col min="4" max="4" width="41.6969168526786" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -392,119 +377,119 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -516,50 +501,50 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>30</v>
@@ -567,22 +552,22 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>30</v>
@@ -590,324 +575,324 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +918,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="26.5882895333426" customWidth="1"/>
+    <col min="4" max="4" width="41.6969168526786" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -953,7 +938,7 @@
     <row r="2" ht="20" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -986,13 +971,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1001,24 +986,24 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -1027,110 +1012,110 @@
         <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1139,24 +1124,24 @@
         <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
@@ -1165,375 +1150,375 @@
         <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1564,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="3">
-        <v>8.65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1587,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="3">
-        <v>7.55</v>
+        <v>6.38</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1588,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1665,34 +1650,6 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3">
-        <v>7.75</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:D1"/>

--- a/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
+++ b/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/SessionResultReport.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
-  <si>
-    <t>Winter examination and credit session</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>Summer examination and credit session</t>
   </si>
   <si>
     <t>Group: AC12</t>
@@ -53,24 +53,51 @@
     <t>Vasilyevich</t>
   </si>
   <si>
-    <t>Algorithms and data structures</t>
+    <t>Linear algebra and geometry</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>08.06.2020</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Discrete mathematics</t>
+  </si>
+  <si>
+    <t>12.06.2020</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>15.06.2020</t>
+  </si>
+  <si>
+    <t>Mathematical analysis</t>
   </si>
   <si>
     <t>Credit</t>
   </si>
   <si>
-    <t>12.12.2019</t>
+    <t>25.06.2020</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>Probability theory and mathematical statistics</t>
-  </si>
-  <si>
-    <t>15.12.2019</t>
-  </si>
-  <si>
     <t>Kolev</t>
   </si>
   <si>
@@ -80,6 +107,9 @@
     <t>Nikolaevich</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Krishina</t>
   </si>
   <si>
@@ -89,6 +119,12 @@
     <t>Ivanovna</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Maximov</t>
   </si>
   <si>
@@ -98,39 +134,6 @@
     <t>Maximovich</t>
   </si>
   <si>
-    <t>Linear algebra and geometry</t>
-  </si>
-  <si>
-    <t>Exam</t>
-  </si>
-  <si>
-    <t>17.12.2019</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Discrete mathematics</t>
-  </si>
-  <si>
-    <t>19.12.2019</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Group: GR55</t>
   </si>
   <si>
@@ -143,10 +146,13 @@
     <t>Petrovich</t>
   </si>
   <si>
-    <t>21.12.2019</t>
-  </si>
-  <si>
-    <t>25.12.2019</t>
+    <t>10.06.2020</t>
+  </si>
+  <si>
+    <t>14.06.2020</t>
+  </si>
+  <si>
+    <t>21.06.2020</t>
   </si>
   <si>
     <t>Malaeva</t>
@@ -176,12 +182,6 @@
     <t>Ileevich</t>
   </si>
   <si>
-    <t>27.12.2019</t>
-  </si>
-  <si>
-    <t>29.12.2019</t>
-  </si>
-  <si>
     <t>Average assessment for each specialty</t>
   </si>
   <si>
@@ -216,6 +216,21 @@
   </si>
   <si>
     <t>Danilov</t>
+  </si>
+  <si>
+    <t>Konstantinovich</t>
+  </si>
+  <si>
+    <t>Konstantin</t>
+  </si>
+  <si>
+    <t>Konstantinov</t>
+  </si>
+  <si>
+    <t>Maksimovich</t>
+  </si>
+  <si>
+    <t>Maksimov</t>
   </si>
 </sst>
 </file>
@@ -283,7 +298,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -292,7 +307,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="41.6969168526786" customWidth="1"/>
+    <col min="4" max="4" width="26.5882895333426" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -377,119 +392,119 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -501,165 +516,165 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>34</v>
@@ -667,22 +682,22 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>35</v>
@@ -690,209 +705,117 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +832,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -918,7 +841,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="41.6969168526786" customWidth="1"/>
+    <col min="4" max="4" width="26.5882895333426" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -938,7 +861,7 @@
     <row r="2" ht="20" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -971,13 +894,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -986,24 +909,24 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -1012,110 +935,110 @@
         <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1124,24 +1047,24 @@
         <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
@@ -1150,375 +1073,329 @@
         <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1441,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="3">
-        <v>7</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="4">
@@ -1572,7 +1449,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="3">
-        <v>6.38</v>
+        <v>7.55</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1465,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1650,6 +1527,34 @@
         <v>6.88</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.75</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:D1"/>
